--- a/data/case1/15/P1_14.xlsx
+++ b/data/case1/15/P1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.12461632833321801</v>
+        <v>0.089808712187860351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999989786638821</v>
+        <v>-0.0099999997733242196</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.069022748968286862</v>
+        <v>-0.0089999997750069838</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28398720117184695</v>
+        <v>0.283996363610445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999990100596534</v>
+        <v>-0.0059999997824515816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999989773373841</v>
+        <v>-0.017893757874766436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998809680619</v>
+        <v>-0.019999999733270712</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998802708419</v>
+        <v>-0.019999999732319473</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.005999998961521591</v>
+        <v>-0.0059999997730608712</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.005999998957101127</v>
+        <v>-0.031113678696776503</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.014007521758657049</v>
+        <v>-0.0044999997776358214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.005999998955503294</v>
+        <v>0.055676827615191549</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999989484769145</v>
+        <v>-0.0059999997722508525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999998876314422</v>
+        <v>-0.011999999754212176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999989466383852</v>
+        <v>0.018950289939039244</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999989471597459</v>
+        <v>-0.0059999997709927477</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999989501546835</v>
+        <v>-0.0059999997699478058</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.016092332139536758</v>
+        <v>-0.0089999997608440907</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999989902325161</v>
+        <v>-0.0089999997760776829</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999989813467351</v>
+        <v>-0.0089999997739909077</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999989800713109</v>
+        <v>-0.0089999997736605053</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999989791493817</v>
+        <v>-0.0089999997733896109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999989677522763</v>
+        <v>-0.062820653472729582</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998553119866</v>
+        <v>-0.04199999967058865</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.073215510184049037</v>
+        <v>-0.041999999668608012</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999989747545612</v>
+        <v>-0.0059999997739588196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999989699206502</v>
+        <v>-0.0059999997727482324</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.004024872727505624</v>
+        <v>-0.0059999997676802863</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999998863187145</v>
+        <v>-0.011999999746363343</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998762717741</v>
+        <v>-0.019999999721099559</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999998810880655</v>
+        <v>-0.014999999733285918</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998738472136</v>
+        <v>-0.020999999715142437</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999989146772847</v>
+        <v>-0.0059999997591599907</v>
       </c>
     </row>
   </sheetData>
